--- a/comment.xlsx
+++ b/comment.xlsx
@@ -1,32 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LuanVan-HK1_23-24\Ecommerce-shop-vn\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677219B7-E69E-464D-A518-8F3CA87F7943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>abc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -41,21 +45,33 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -345,21 +361,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>10</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1">
         <v>55</v>
@@ -368,7 +379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -379,7 +390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -390,7 +401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -401,7 +412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -412,7 +423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -423,7 +434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -434,7 +445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -445,7 +456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -456,7 +467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -467,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -478,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -489,7 +500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -500,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -511,7 +522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -522,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>12</v>
       </c>
@@ -533,7 +544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -544,7 +555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -555,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>12</v>
       </c>
@@ -566,7 +577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -577,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -588,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
@@ -599,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13</v>
       </c>
@@ -610,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13</v>
       </c>
@@ -621,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
@@ -632,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>13</v>
       </c>
@@ -643,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13</v>
       </c>
@@ -654,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>13</v>
       </c>
@@ -665,7 +676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>13</v>
       </c>
@@ -676,7 +687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13</v>
       </c>
@@ -687,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>13</v>
       </c>
@@ -698,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>13</v>
       </c>
@@ -709,7 +720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>13</v>
       </c>
@@ -720,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>13</v>
       </c>
@@ -731,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>14</v>
       </c>
@@ -742,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>14</v>
       </c>
@@ -753,7 +764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>14</v>
       </c>
@@ -764,7 +775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>14</v>
       </c>
@@ -775,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>14</v>
       </c>
@@ -786,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>14</v>
       </c>
@@ -797,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -808,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14</v>
       </c>
@@ -819,7 +830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>14</v>
       </c>
@@ -830,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>15</v>
       </c>
@@ -841,7 +852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>15</v>
       </c>
@@ -852,7 +863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>15</v>
       </c>
@@ -863,7 +874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>15</v>
       </c>
@@ -874,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>15</v>
       </c>
@@ -885,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>15</v>
       </c>
@@ -896,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>15</v>
       </c>
@@ -907,7 +918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15</v>
       </c>
@@ -918,7 +929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>15</v>
       </c>
@@ -929,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>15</v>
       </c>
@@ -940,7 +951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>16</v>
       </c>
@@ -951,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>16</v>
       </c>
@@ -962,7 +973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>16</v>
       </c>
@@ -973,7 +984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>16</v>
       </c>
@@ -984,7 +995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>16</v>
       </c>
@@ -995,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>16</v>
       </c>
@@ -1006,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>16</v>
       </c>
@@ -1017,7 +1028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>16</v>
       </c>
@@ -1028,7 +1039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>16</v>
       </c>
@@ -1039,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>16</v>
       </c>
@@ -1050,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>17</v>
       </c>
@@ -1061,7 +1072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>17</v>
       </c>
@@ -1072,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>17</v>
       </c>
@@ -1083,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>17</v>
       </c>
@@ -1094,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>17</v>
       </c>
@@ -1105,7 +1116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>17</v>
       </c>
@@ -1116,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>17</v>
       </c>
@@ -1127,7 +1138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>17</v>
       </c>
@@ -1138,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>17</v>
       </c>
@@ -1149,7 +1160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>18</v>
       </c>
@@ -1160,7 +1171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>18</v>
       </c>
@@ -1171,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>18</v>
       </c>
@@ -1182,7 +1193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>18</v>
       </c>
@@ -1193,7 +1204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>18</v>
       </c>
@@ -1204,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>18</v>
       </c>
@@ -1215,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>18</v>
       </c>
@@ -1226,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>18</v>
       </c>
@@ -1238,18 +1249,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>